--- a/Domibus-MSH-selenium-ui-tests/TestCase_Domibus-4.1.xlsx
+++ b/Domibus-MSH-selenium-ui-tests/TestCase_Domibus-4.1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="798">
   <si>
     <t xml:space="preserve">Step</t>
   </si>
@@ -131,6 +131,12 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">need specific list of status/settings</t>
+  </si>
+  <si>
     <t xml:space="preserve">Row selection of any message when row specific resend and download icon are disabled</t>
   </si>
   <si>
@@ -209,7 +215,6 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Messages are available for download only on the </t>
     </r>
@@ -219,7 +224,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">receiver</t>
     </r>
@@ -229,7 +233,6 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> node or on the sending node if message was not sent (status = WAITING_FOR_RETRY or SEND_FAILURE)
 Message must still have it's payload (the payload has not been deleted from the message)
@@ -241,7 +244,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">containing</t>
     </r>
@@ -251,7 +253,6 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">:
 - the message payload
@@ -418,7 +419,6 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Modal with form allowing the user to create a filter opens
 User can choose only plugins configured for his </t>
@@ -429,7 +429,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">select</t>
     </r>
@@ -439,7 +438,6 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> domain
 After user enters required data and presses OK the Save and Cancel buttons become active</t>
@@ -552,7 +550,6 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">User is prompted if he wishes to Cancel the changes. If user presses Yes he is taken to the </t>
     </r>
@@ -562,7 +559,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">corresponding</t>
     </r>
@@ -572,7 +568,6 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> domains Message filters page.
 If user chooses Not then the domain doesn't change allowing the user to save his changes.</t>
@@ -835,7 +830,6 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Modal with </t>
     </r>
@@ -845,7 +839,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">possible</t>
     </r>
@@ -855,7 +848,6 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> destinations opens allowing the user to cancel or confirm the action
 If the user confirms the message is moved to the selected destination queue. Else the message is not moved</t>
@@ -868,7 +860,6 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">List of messages is refreshed
 Only messages </t>
@@ -879,7 +870,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">corresponding</t>
     </r>
@@ -889,7 +879,6 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> to the new domain are shown
 List is at page 1</t>
@@ -1060,9 +1049,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Doubleclick on one user (active)</t>
   </si>
   <si>
@@ -1128,7 +1114,6 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Confirmation modal appears.
 List </t>
@@ -1139,7 +1124,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">is</t>
     </r>
@@ -1149,7 +1133,6 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> refreshed and user reappears.
 Save and Cancel buttons become disabled again
@@ -1166,7 +1149,6 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Confirmation modal appears.
 List </t>
@@ -1177,7 +1159,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">is</t>
     </r>
@@ -1187,7 +1168,6 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> refreshed and user is deleted permanently
 Save and Cancel buttons become disabled again
@@ -1365,7 +1345,6 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"Filter area has the following filters:
 - </t>
@@ -1376,7 +1355,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Authentication</t>
     </r>
@@ -1386,7 +1364,6 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> type
 - User role
@@ -1400,7 +1377,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Authentication</t>
     </r>
@@ -1410,14 +1386,32 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> type dropdown has preselected the BASIC value.
 All other filters are empty.
 Users grid contains all the users in for the current domain and current authentication type
 Grid is at page 1.
 Grid has 10 users per page.
-Grid shows only columns:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Grid shows only columns:
 - Username
 - Password
 - Role
@@ -1430,7 +1424,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">disabled</t>
     </r>
@@ -1440,7 +1433,6 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> except New button.
 </t>
@@ -1461,7 +1453,6 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Confirmation modal appears.
 List </t>
@@ -1472,7 +1463,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">is</t>
     </r>
@@ -1482,7 +1472,6 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> refreshed and user is deleted </t>
     </r>
@@ -1492,7 +1481,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">permanently.
 </t>
@@ -1503,7 +1491,6 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Save and Cancel buttons become disabled again
 </t>
@@ -1865,7 +1852,6 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">User is presented with dropdown allowing him to pick the party ID
 Test and Update buttons are present and disabled.
@@ -1879,7 +1865,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">initially</t>
     </r>
@@ -1889,7 +1874,6 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> don't contain any information and are not editable</t>
     </r>
@@ -1925,7 +1909,6 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">The submit test message form now contains 3 fields:
 Final recipient
@@ -1942,7 +1925,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">initially</t>
     </r>
@@ -1952,7 +1934,6 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> don't contain any information and are not editable</t>
     </r>
@@ -1985,7 +1966,6 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">File is visible in the PMode - Current page
 Changes take effect </t>
@@ -1996,7 +1976,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">immediately.
 </t>
@@ -2007,7 +1986,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">New row is added to the Archive table with link to the current file</t>
     </r>
@@ -2115,7 +2093,6 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Modal opens allowing the user to enter the </t>
     </r>
@@ -2125,7 +2102,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">necessary</t>
     </r>
@@ -2135,7 +2111,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> data to define a new party.
 Required information is clearly defined.
@@ -2147,7 +2122,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">effect</t>
     </r>
@@ -2157,7 +2131,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2167,7 +2140,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">immediately.</t>
     </r>
@@ -2182,7 +2154,6 @@
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Modal opens allowing the user to enter the </t>
     </r>
@@ -2192,7 +2163,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">necessary</t>
     </r>
@@ -2202,7 +2172,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> data to edit the party.
 Required information is clearly defined.
@@ -2214,7 +2183,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">effect</t>
     </r>
@@ -2224,7 +2192,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2234,7 +2201,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">immediately.</t>
     </r>
@@ -3324,13 +3290,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3348,11 +3313,87 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3360,14 +3401,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFCC0000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3375,7 +3414,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -3383,21 +3421,18 @@
       <color rgb="FF808080"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF006600"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3405,14 +3440,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -3420,35 +3453,30 @@
       <color rgb="FF0000EE"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3456,21 +3484,18 @@
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -3478,21 +3503,18 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -3501,6 +3523,30 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3518,30 +3564,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -3602,7 +3624,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="38">
+  <cellStyleXfs count="55">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3626,113 +3648,160 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="6" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="8" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="5" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="8" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="0" xfId="33" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="9" borderId="0" xfId="50" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="0" xfId="33" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="9" borderId="0" xfId="50" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="0" xfId="33" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="9" borderId="0" xfId="50" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="33" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="50" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="0" xfId="33" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="10" borderId="0" xfId="50" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="33" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="33" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="50" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3740,15 +3809,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="33" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="50" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="33" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3756,7 +3825,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="0" xfId="33" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="9" borderId="0" xfId="50" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3768,15 +3837,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3784,7 +3853,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3796,7 +3865,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3804,11 +3873,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="31" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="48" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3817,31 +3886,48 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="24">
+  <cellStyles count="41">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Accent 1 5" xfId="20"/>
-    <cellStyle name="Accent 2 6" xfId="21"/>
-    <cellStyle name="Accent 3 7" xfId="22"/>
-    <cellStyle name="Accent 4" xfId="23"/>
-    <cellStyle name="Bad 2" xfId="24"/>
-    <cellStyle name="Error 8" xfId="25"/>
-    <cellStyle name="Footnote 9" xfId="26"/>
-    <cellStyle name="Good 2" xfId="27"/>
-    <cellStyle name="Heading 1 2" xfId="28"/>
-    <cellStyle name="Heading 10" xfId="29"/>
-    <cellStyle name="Heading 2 2" xfId="30"/>
-    <cellStyle name="Hyperlink 11" xfId="31"/>
-    <cellStyle name="Neutral 2" xfId="32"/>
-    <cellStyle name="Normal 2" xfId="33"/>
-    <cellStyle name="Note 2" xfId="34"/>
-    <cellStyle name="Status 12" xfId="35"/>
-    <cellStyle name="Text 13" xfId="36"/>
-    <cellStyle name="Warning 14" xfId="37"/>
+    <cellStyle name="Heading" xfId="20"/>
+    <cellStyle name="Heading 1" xfId="21"/>
+    <cellStyle name="Heading 2" xfId="22"/>
+    <cellStyle name="Text" xfId="23"/>
+    <cellStyle name="Note" xfId="24"/>
+    <cellStyle name="Footnote" xfId="25"/>
+    <cellStyle name="Hyperlink" xfId="26"/>
+    <cellStyle name="Status" xfId="27"/>
+    <cellStyle name="Good" xfId="28"/>
+    <cellStyle name="Neutral" xfId="29"/>
+    <cellStyle name="Bad" xfId="30"/>
+    <cellStyle name="Warning" xfId="31"/>
+    <cellStyle name="Error" xfId="32"/>
+    <cellStyle name="Accent" xfId="33"/>
+    <cellStyle name="Accent 1" xfId="34"/>
+    <cellStyle name="Accent 2" xfId="35"/>
+    <cellStyle name="Accent 3" xfId="36"/>
+    <cellStyle name="Accent 1 5" xfId="37"/>
+    <cellStyle name="Accent 2 6" xfId="38"/>
+    <cellStyle name="Accent 3 7" xfId="39"/>
+    <cellStyle name="Accent 4" xfId="40"/>
+    <cellStyle name="Bad 2" xfId="41"/>
+    <cellStyle name="Error 8" xfId="42"/>
+    <cellStyle name="Footnote 9" xfId="43"/>
+    <cellStyle name="Good 2" xfId="44"/>
+    <cellStyle name="Heading 1 2" xfId="45"/>
+    <cellStyle name="Heading 10" xfId="46"/>
+    <cellStyle name="Heading 2 2" xfId="47"/>
+    <cellStyle name="Hyperlink 11" xfId="48"/>
+    <cellStyle name="Neutral 2" xfId="49"/>
+    <cellStyle name="Normal 2" xfId="50"/>
+    <cellStyle name="Note 2" xfId="51"/>
+    <cellStyle name="Status 12" xfId="52"/>
+    <cellStyle name="Text 13" xfId="53"/>
+    <cellStyle name="Warning 14" xfId="54"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -3913,8 +3999,8 @@
   </sheetPr>
   <dimension ref="A1:D351"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A73" activeCellId="0" sqref="A73"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3981,7 +4067,7 @@
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -4021,7 +4107,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -4097,366 +4183,380 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="180.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="191.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" customFormat="false" ht="75.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="76.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" customFormat="false" ht="270" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C45" s="5"/>
-      <c r="D45" s="7"/>
+      <c r="D45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
     </row>
-    <row r="49" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C49" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D49" s="5"/>
     </row>
-    <row r="50" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="8" t="s">
-        <v>85</v>
+    <row r="50" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C50" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D50" s="5"/>
     </row>
-    <row r="51" customFormat="false" ht="46.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="8" t="s">
-        <v>87</v>
+    <row r="51" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C51" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D51" s="5"/>
     </row>
-    <row r="52" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8" t="s">
-        <v>89</v>
+    <row r="52" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C52" s="5" t="n">
         <v>1</v>
@@ -4464,11 +4564,11 @@
       <c r="D52" s="5"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="8" t="s">
-        <v>91</v>
+      <c r="A53" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C53" s="5" t="n">
         <v>1</v>
@@ -4476,59 +4576,59 @@
       <c r="D53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8" t="s">
-        <v>87</v>
+      <c r="A54" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C54" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D54" s="5"/>
     </row>
-    <row r="55" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8" t="s">
-        <v>94</v>
+    <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C55" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D55" s="5"/>
     </row>
-    <row r="56" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8" t="s">
-        <v>96</v>
+    <row r="56" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C56" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D56" s="5"/>
     </row>
-    <row r="57" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="8" t="s">
-        <v>98</v>
+    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C57" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" customFormat="false" ht="68.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="8" t="s">
-        <v>100</v>
+    <row r="58" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C58" s="5" t="n">
         <v>1</v>
@@ -4536,11 +4636,11 @@
       <c r="D58" s="5"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="8" t="s">
-        <v>102</v>
+      <c r="A59" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C59" s="5" t="n">
         <v>1</v>
@@ -4549,228 +4649,228 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8" t="s">
-        <v>87</v>
+      <c r="A61" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
     </row>
-    <row r="67" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
     </row>
-    <row r="69" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
     </row>
-    <row r="70" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
     </row>
-    <row r="71" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
     </row>
-    <row r="74" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
     </row>
-    <row r="75" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
     </row>
-    <row r="76" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
     </row>
-    <row r="82" customFormat="false" ht="113.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C82" s="5" t="n">
         <v>1</v>
@@ -4779,484 +4879,484 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
     </row>
-    <row r="84" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C84" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D84" s="5"/>
     </row>
-    <row r="85" customFormat="false" ht="124.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
     </row>
-    <row r="91" customFormat="false" ht="113.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
     </row>
-    <row r="92" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
     </row>
-    <row r="94" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
     </row>
-    <row r="96" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
     </row>
-    <row r="101" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B107" s="4"/>
     </row>
-    <row r="108" customFormat="false" ht="236.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="68.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
     </row>
-    <row r="118" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="113.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="23.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5265,301 +5365,301 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B140" s="4"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="8" t="s">
-        <v>202</v>
+      <c r="A142" s="7" t="s">
+        <v>204</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="90.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B158" s="4"/>
     </row>
-    <row r="159" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C159" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>226</v>
+        <v>28</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="8" t="s">
-        <v>227</v>
+      <c r="A161" s="7" t="s">
+        <v>228</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C161" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="8" t="s">
-        <v>229</v>
+      <c r="A162" s="7" t="s">
+        <v>230</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C162" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="46.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="8" t="s">
-        <v>231</v>
+    <row r="163" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C163" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="46.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="8" t="s">
-        <v>233</v>
+    <row r="164" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="7" t="s">
+        <v>234</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C164" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="8" t="s">
-        <v>235</v>
+    <row r="165" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="7" t="s">
+        <v>236</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C165" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="46.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="8" t="s">
-        <v>237</v>
+    <row r="166" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C166" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="46.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="8" t="s">
-        <v>239</v>
+    <row r="167" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C167" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="8" t="s">
-        <v>241</v>
+    <row r="168" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C168" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C169" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="8" t="s">
-        <v>245</v>
+      <c r="A170" s="7" t="s">
+        <v>246</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C170" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="8" t="s">
-        <v>247</v>
+    <row r="171" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="7" t="s">
+        <v>248</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>226</v>
+        <v>28</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C172" s="1" t="n">
         <v>1</v>
@@ -5567,21 +5667,21 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C174" s="1" t="n">
         <v>1</v>
@@ -5589,10 +5689,10 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C175" s="1" t="n">
         <v>1</v>
@@ -5600,21 +5700,21 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>226</v>
+        <v>28</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C177" s="1" t="n">
         <v>1</v>
@@ -5622,21 +5722,21 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>226</v>
+        <v>28</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C179" s="1" t="n">
         <v>1</v>
@@ -5644,10 +5744,10 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B180" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>264</v>
       </c>
       <c r="C180" s="1" t="n">
         <v>1</v>
@@ -5655,10 +5755,10 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C181" s="1" t="n">
         <v>1</v>
@@ -5666,21 +5766,21 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C182" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C183" s="1" t="n">
         <v>1</v>
@@ -5688,303 +5788,303 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C184" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C185" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B186" s="5" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="186" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="5" t="s">
+      <c r="C186" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B186" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="124.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="187" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B197" s="5" t="s">
         <v>288</v>
-      </c>
-      <c r="B197" s="5" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B202" s="4"/>
     </row>
-    <row r="203" customFormat="false" ht="189.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="189.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C203" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="8" t="s">
-        <v>295</v>
+      <c r="A204" s="7" t="s">
+        <v>296</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C204" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="8" t="s">
-        <v>231</v>
+    <row r="205" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C205" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="46.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="8" t="s">
-        <v>233</v>
+    <row r="206" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="7" t="s">
+        <v>234</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C206" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="8" t="s">
-        <v>235</v>
+    <row r="207" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="7" t="s">
+        <v>236</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C207" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="46.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="8" t="s">
-        <v>237</v>
+    <row r="208" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C208" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="46.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="8" t="s">
-        <v>239</v>
+    <row r="209" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C209" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="8" t="s">
-        <v>241</v>
+    <row r="210" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C210" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C211" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="8" t="s">
-        <v>245</v>
+      <c r="A212" s="7" t="s">
+        <v>246</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C212" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="8" t="s">
-        <v>298</v>
+      <c r="A213" s="7" t="s">
+        <v>299</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5995,56 +6095,56 @@
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
     </row>
-    <row r="216" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C220" s="1" t="n">
         <v>1</v>
@@ -6052,10 +6152,10 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B221" s="5" t="s">
         <v>304</v>
-      </c>
-      <c r="B221" s="5" t="s">
-        <v>303</v>
       </c>
       <c r="C221" s="1" t="n">
         <v>1</v>
@@ -6063,145 +6163,145 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C222" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="90.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="80.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6218,508 +6318,508 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B238" s="4"/>
     </row>
-    <row r="239" customFormat="false" ht="80.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="68.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B262" s="5" t="s">
         <v>354</v>
-      </c>
-      <c r="B262" s="5" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="90.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B279" s="4"/>
     </row>
-    <row r="280" customFormat="false" ht="169.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B282" s="5" t="s">
         <v>371</v>
-      </c>
-      <c r="B282" s="5" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B285" s="5" t="s">
         <v>375</v>
-      </c>
-      <c r="B285" s="5" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="292" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B295" s="5" t="s">
         <v>391</v>
-      </c>
-      <c r="B295" s="5" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B300" s="4"/>
     </row>
-    <row r="301" customFormat="false" ht="59" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="58.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C301" s="1" t="n">
         <v>1</v>
@@ -6727,330 +6827,330 @@
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C302" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C303" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B304" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="92.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B305" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="C304" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="305" customFormat="false" ht="92.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="5" t="s">
+      <c r="B307" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="B305" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="C305" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="306" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="B306" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="307" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B307" s="5" t="s">
-        <v>404</v>
-      </c>
       <c r="C307" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B308" s="4"/>
     </row>
-    <row r="309" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="310" customFormat="false" ht="36.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B313" s="5" t="s">
         <v>418</v>
-      </c>
-      <c r="B313" s="5" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="315" customFormat="false" ht="46.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="321" customFormat="false" ht="46.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="326" customFormat="false" ht="37.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="38.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="327" customFormat="false" ht="37.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="38.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="331" customFormat="false" ht="158.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="332" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="334" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="335" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="337" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="338" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="339" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="340" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7059,72 +7159,72 @@
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B342" s="3"/>
     </row>
-    <row r="343" customFormat="false" ht="46.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="348" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="349" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="350" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7168,131 +7268,131 @@
       <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="80.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="76.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>485</v>
-      </c>
-      <c r="B13" s="9" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>498</v>
-      </c>
-      <c r="C20" s="10"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>499</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="11" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="11" t="s">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="10" t="s">
         <v>504</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="10" t="s">
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -7317,7 +7417,7 @@
       <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="63.14"/>
@@ -7326,35 +7426,35 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>505</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13" t="s">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
+      <c r="D1" s="8" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>508</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="C2" s="13" t="s">
         <v>509</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>510</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>9080</v>
@@ -7363,736 +7463,736 @@
         <v>8085</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="8" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="B57" s="15"/>
+    </row>
+    <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="B58" s="15"/>
+      <c r="C58" s="0" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="B59" s="15"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="16" t="s">
+        <v>576</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="15"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="15"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B64" s="15"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="15"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="9" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="9" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="B6" s="0" t="s">
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="B73" s="0" t="s">
         <v>513</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>512</v>
-      </c>
-      <c r="C7" s="0" t="s">
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="B74" s="0" t="s">
         <v>513</v>
       </c>
-      <c r="D7" s="0" t="s">
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="B75" s="0" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>516</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>512</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>517</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
         <v>518</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
-        <v>520</v>
-      </c>
-      <c r="B11" s="0" t="s">
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="8" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
-        <v>522</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>523</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>525</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
         <v>528</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="9" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
         <v>532</v>
       </c>
-      <c r="B19" s="0" t="s">
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
         <v>533</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="B84" s="0" t="s">
         <v>534</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>536</v>
-      </c>
-      <c r="B20" s="0" t="s">
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
         <v>537</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>538</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>539</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>532</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>536</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>538</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>539</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
         <v>541</v>
       </c>
-      <c r="C28" s="0" t="s">
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>532</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>542</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>536</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>542</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>538</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>539</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>543</v>
-      </c>
-      <c r="B33" s="0" t="s">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
         <v>544</v>
       </c>
-      <c r="C33" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="B95" s="0" t="s">
         <v>545</v>
       </c>
-      <c r="B34" s="0" t="s">
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
         <v>546</v>
       </c>
-      <c r="C34" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="B96" s="0" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="s">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>550</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="s">
-        <v>551</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="15" t="s">
-        <v>553</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>554</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>556</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>557</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
         <v>558</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
         <v>559</v>
       </c>
-      <c r="D45" s="0" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
         <v>560</v>
       </c>
-      <c r="D46" s="0" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9" t="s">
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>562</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10" t="s">
+    <row r="104" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="8" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="9" t="s">
         <v>565</v>
       </c>
-      <c r="B51" s="0" t="s">
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
         <v>566</v>
       </c>
-      <c r="C51" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="B108" s="0" t="s">
         <v>567</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
         <v>568</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="10" t="s">
+      <c r="B109" s="0" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="9" t="s">
+      <c r="B110" s="0" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="B56" s="16" t="s">
+    </row>
+    <row r="113" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="C56" s="0" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9" t="s">
-        <v>572</v>
-      </c>
-      <c r="B57" s="16"/>
-    </row>
-    <row r="58" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9" t="s">
+    </row>
+    <row r="114" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="B58" s="16"/>
-      <c r="C58" s="0" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9" t="s">
+    </row>
+    <row r="115" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="B59" s="16"/>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="17" t="s">
+    </row>
+    <row r="116" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="B61" s="16" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="16"/>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="16"/>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="10" t="s">
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="B64" s="16"/>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="16"/>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="10" t="s">
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="9" t="s">
         <v>577</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="10" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="10" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>511</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>516</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="9" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="9" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="10" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>532</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
-        <v>543</v>
-      </c>
-      <c r="B95" s="0" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
-        <v>545</v>
-      </c>
-      <c r="B96" s="0" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="10" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="9" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="10" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
-        <v>565</v>
-      </c>
-      <c r="B108" s="0" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
-        <v>567</v>
-      </c>
-      <c r="B109" s="0" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
-        <v>568</v>
-      </c>
-      <c r="B110" s="0" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="10" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="9" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="9" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="9" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="9" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="17" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="10" t="s">
-        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -8122,7 +8222,7 @@
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="104.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="106.7"/>
@@ -8130,665 +8230,665 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>582</v>
-      </c>
-      <c r="B1" s="15"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="s">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="B2" s="15"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="s">
+      <c r="B1" s="14"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="17" t="s">
         <v>584</v>
       </c>
-      <c r="B3" s="15"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
+      <c r="B2" s="14"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="17" t="s">
         <v>585</v>
       </c>
-      <c r="B4" s="15"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18"/>
-      <c r="B5" s="15"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="s">
+      <c r="B3" s="14"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B4" s="14"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="17"/>
+      <c r="B5" s="14"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="17" t="s">
         <v>587</v>
       </c>
+      <c r="B6" s="17" t="s">
+        <v>588</v>
+      </c>
       <c r="C6" s="0" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="s">
-        <v>588</v>
-      </c>
-      <c r="B8" s="15" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="17" t="s">
         <v>589</v>
       </c>
+      <c r="B8" s="14" t="s">
+        <v>590</v>
+      </c>
       <c r="C8" s="0" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
-        <v>590</v>
-      </c>
-      <c r="B10" s="15"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18"/>
-      <c r="B11" s="15"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17" t="s">
         <v>591</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B10" s="14"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="17"/>
+      <c r="B11" s="14"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18" t="s">
+      <c r="B12" s="14" t="s">
         <v>593</v>
       </c>
-      <c r="B14" s="15" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="17" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18" t="s">
+      <c r="B14" s="14" t="s">
         <v>595</v>
       </c>
-      <c r="B16" s="15"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="17" t="s">
         <v>596</v>
       </c>
-      <c r="B18" s="15"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18" t="s">
+      <c r="B16" s="14"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="17" t="s">
         <v>597</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B18" s="14"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="17" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="18" t="s">
+      <c r="B20" s="14" t="s">
         <v>599</v>
       </c>
-      <c r="B21" s="15"/>
-    </row>
-    <row r="22" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="17" t="s">
         <v>600</v>
       </c>
-      <c r="B22" s="15"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18" t="s">
+      <c r="B21" s="14"/>
+    </row>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="17" t="s">
         <v>601</v>
       </c>
-      <c r="B24" s="15"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18" t="s">
+      <c r="B22" s="14"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="17" t="s">
         <v>602</v>
       </c>
-      <c r="B25" s="15"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18" t="s">
+      <c r="B24" s="14"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="17" t="s">
         <v>603</v>
       </c>
-      <c r="B26" s="15"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="18" t="s">
+      <c r="B25" s="14"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="17" t="s">
         <v>604</v>
       </c>
-      <c r="B27" s="15"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="18" t="s">
+      <c r="B26" s="14"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="17" t="s">
         <v>605</v>
       </c>
-      <c r="B28" s="15"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="18" t="s">
+      <c r="B27" s="14"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="17" t="s">
         <v>606</v>
       </c>
-      <c r="B29" s="15"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="18" t="s">
+      <c r="B28" s="14"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="17" t="s">
         <v>607</v>
       </c>
-      <c r="B30" s="15"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="18" t="s">
+      <c r="B29" s="14"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="17" t="s">
         <v>608</v>
       </c>
-      <c r="B31" s="15"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="18" t="s">
+      <c r="B30" s="14"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="17" t="s">
         <v>609</v>
       </c>
-      <c r="B32" s="15"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="18" t="s">
+      <c r="B31" s="14"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="17" t="s">
         <v>610</v>
       </c>
-      <c r="B33" s="15"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="18" t="s">
+      <c r="B32" s="14"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="17" t="s">
         <v>611</v>
       </c>
-      <c r="B34" s="15"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="19"/>
-      <c r="B35" s="15"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="14"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="B34" s="14"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="18"/>
+      <c r="B35" s="14"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="e">
         <f aca="false">-login successful</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
   </sheetData>
@@ -8813,327 +8913,327 @@
       <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="20" width="124.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="20" width="49.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="20" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="124.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="49.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="19" width="9.13"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="21" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="20" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="19" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="19" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="19" t="s">
         <v>694</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="19" t="s">
         <v>695</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B6" s="19" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="19" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>697</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="19" t="s">
         <v>698</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="s">
+      <c r="B8" s="19" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="19" t="s">
         <v>699</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="s">
+      <c r="B9" s="19" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="19" t="s">
         <v>700</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B10" s="19" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="19" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="19" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="19" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="19" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="19" t="s">
         <v>705</v>
       </c>
-      <c r="B19" s="20" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="19" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="19" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="19" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="19" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20" t="s">
+      <c r="B19" s="19" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="19" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="s">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="19" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="s">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="19" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20" t="s">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="19" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="19" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20" t="s">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="19" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="19" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="19" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="19" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="20" t="s">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="19" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="19" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20" t="s">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="19" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="19" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="20" t="s">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="19" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="20" t="s">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="19" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="20" t="s">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="19" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="20" t="s">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="19" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="20" t="s">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="19" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="20" t="s">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="19" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="20" t="s">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="19" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="20" t="s">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="19" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="20" t="s">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="19" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="20" t="s">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="19" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="20" t="s">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="19" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="20" t="s">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="19" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="20" t="s">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="19" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="20" t="s">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="19" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="20" t="s">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="19" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="20" t="s">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="19" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="20" t="s">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="19" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="20" t="s">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="19" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="20" t="s">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="19" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="20" t="s">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="19" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="20" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="20" t="s">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="19" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="20" t="s">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="19" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="19" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="20" t="s">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="19" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="20" t="s">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="19" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="20" t="s">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="19" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="20" t="s">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="19" t="s">
         <v>739</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="19" t="s">
+        <v>740</v>
       </c>
     </row>
   </sheetData>
@@ -9158,502 +9258,502 @@
       <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="90.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="98.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="90.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="21" width="98.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24" t="s">
-        <v>740</v>
-      </c>
-      <c r="C1" s="24" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="22"/>
+      <c r="B1" s="23" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="n">
+      <c r="C1" s="23" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="24"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="24"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>742</v>
-      </c>
-      <c r="C4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25"/>
-      <c r="B6" s="22" t="s">
+      <c r="C4" s="25" t="s">
         <v>744</v>
       </c>
-      <c r="C6" s="22" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="24"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="24"/>
+      <c r="B6" s="21" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="25"/>
-      <c r="B7" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>746</v>
       </c>
-      <c r="C7" s="22" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="24"/>
+      <c r="B7" s="21" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="25"/>
-      <c r="B9" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>748</v>
       </c>
-      <c r="C9" s="22" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="24"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="24"/>
+      <c r="B9" s="21" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="25"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="25" t="n">
+      <c r="C9" s="21" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="24"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>750</v>
-      </c>
-      <c r="C11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="25"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25"/>
-      <c r="B13" s="22" t="s">
+      <c r="C11" s="25" t="s">
         <v>752</v>
       </c>
-      <c r="C13" s="22" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="24"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="24"/>
+      <c r="B13" s="21" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="25"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="25"/>
-      <c r="B15" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>754</v>
       </c>
-      <c r="C15" s="22" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="24"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="24"/>
+      <c r="B15" s="21" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="25"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="25" t="n">
+      <c r="C15" s="21" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="24"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="B17" s="26" t="s">
-        <v>756</v>
-      </c>
-      <c r="C17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="25"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="25"/>
-      <c r="B19" s="22" t="s">
+      <c r="C17" s="25" t="s">
         <v>758</v>
       </c>
-      <c r="C19" s="22" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="24"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="24"/>
+      <c r="B19" s="21" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="25"/>
-      <c r="B20" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>760</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="25"/>
-      <c r="B21" s="22" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="24"/>
+      <c r="B20" s="21" t="s">
         <v>761</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="25"/>
-      <c r="B22" s="22" t="s">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="24"/>
+      <c r="B21" s="21" t="s">
         <v>762</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C21" s="21" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="24"/>
+      <c r="B22" s="21" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="25"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="25" t="n">
+      <c r="C22" s="21" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="24"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="B24" s="26" t="s">
-        <v>764</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="25"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="25"/>
-      <c r="B26" s="22" t="s">
+      <c r="B24" s="25" t="s">
         <v>765</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C24" s="25" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="24"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="24"/>
+      <c r="B26" s="21" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="25"/>
-      <c r="B27" s="22" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="25"/>
-      <c r="B28" s="22" t="s">
+      <c r="C26" s="21" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="25"/>
-      <c r="B29" s="22" t="s">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="24"/>
+      <c r="B27" s="21" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="24"/>
+      <c r="B28" s="21" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="25"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="25" t="n">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="24"/>
+      <c r="B29" s="21" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="24"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="B31" s="26" t="s">
-        <v>769</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="25"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22" t="s">
+      <c r="B31" s="25" t="s">
         <v>770</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C31" s="25" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="24"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="24"/>
+      <c r="B33" s="21" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="25"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="25" t="n">
+      <c r="C33" s="21" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="24"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="B35" s="26" t="s">
-        <v>772</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="25"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="25"/>
-      <c r="B37" s="22" t="s">
+      <c r="B35" s="25" t="s">
         <v>773</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C35" s="25" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="24"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="24"/>
+      <c r="B37" s="21" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="25"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="25"/>
-      <c r="B39" s="22" t="s">
+      <c r="C37" s="21" t="s">
         <v>775</v>
       </c>
-      <c r="C39" s="22" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="24"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="24"/>
+      <c r="B39" s="21" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22" t="s">
+      <c r="C39" s="21" t="s">
         <v>777</v>
       </c>
-      <c r="C40" s="22" t="s">
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="24"/>
+      <c r="B40" s="21" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="25"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="25" t="n">
+      <c r="C40" s="21" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="24"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="B42" s="26" t="s">
-        <v>779</v>
-      </c>
-      <c r="C42" s="26" t="s">
+      <c r="B42" s="25" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="25"/>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="25"/>
-      <c r="B44" s="22" t="s">
+      <c r="C42" s="25" t="s">
         <v>781</v>
       </c>
-      <c r="C44" s="22" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="25"/>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="25" t="n">
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="24"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="24"/>
+      <c r="B44" s="21" t="s">
+        <v>782</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="24"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="24" t="n">
         <v>7</v>
       </c>
-      <c r="B46" s="26" t="s">
-        <v>782</v>
-      </c>
-      <c r="C46" s="26"/>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="25"/>
-      <c r="B47" s="27" t="s">
+      <c r="B46" s="25" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="25"/>
-      <c r="B48" s="22" t="s">
+      <c r="C46" s="25"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="24"/>
+      <c r="B47" s="26" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="25"/>
-      <c r="B49" s="22" t="s">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="24"/>
+      <c r="B48" s="21" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="25"/>
-      <c r="B50" s="22" t="s">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="24"/>
+      <c r="B49" s="21" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="24"/>
+      <c r="B50" s="21" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="24"/>
+      <c r="B51" s="21" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="24"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>783</v>
+      </c>
+      <c r="C53" s="25"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="24"/>
+      <c r="B54" s="21" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="24"/>
+      <c r="B55" s="21" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="24"/>
+      <c r="B56" s="21" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="25"/>
-      <c r="B51" s="22" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="25"/>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>782</v>
-      </c>
-      <c r="C53" s="26"/>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="25"/>
-      <c r="B55" s="22" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="25"/>
-      <c r="B56" s="22" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="25"/>
-      <c r="B57" s="22" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="25"/>
-      <c r="B58" s="22" t="s">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="24"/>
+      <c r="B57" s="21" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="25"/>
-      <c r="B59" s="22" t="s">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="24"/>
+      <c r="B58" s="21" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="25"/>
-      <c r="B60" s="22" t="s">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="24"/>
+      <c r="B59" s="21" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="25"/>
-      <c r="B61" s="22" t="s">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="24"/>
+      <c r="B60" s="21" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="25"/>
-      <c r="B62" s="22" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="25"/>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="25" t="n">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="24"/>
+      <c r="B61" s="21" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="24"/>
+      <c r="B62" s="21" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="24"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="24" t="n">
         <v>9</v>
       </c>
-      <c r="B64" s="22" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="25"/>
-      <c r="B65" s="22" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="25"/>
-      <c r="B66" s="22" t="s">
+      <c r="B64" s="21" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="24"/>
+      <c r="B65" s="21" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="25"/>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="25"/>
-      <c r="B68" s="22" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="25"/>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="25" t="n">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="24"/>
+      <c r="B66" s="21" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="24"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="24"/>
+      <c r="B68" s="21" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="24"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="B70" s="26" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="25"/>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="25"/>
-      <c r="B72" s="22" t="s">
+      <c r="B70" s="25" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="25"/>
-      <c r="B73" s="22" t="s">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="24"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="24"/>
+      <c r="B72" s="21" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="25"/>
-      <c r="B74" s="22" t="s">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="24"/>
+      <c r="B73" s="21" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22" t="s">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="24"/>
+      <c r="B74" s="21" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="25"/>
-      <c r="B76" s="22" t="s">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="24"/>
+      <c r="B75" s="21" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="25"/>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="25"/>
-      <c r="B78" s="22" t="s">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="24"/>
+      <c r="B76" s="21" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="28"/>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="24"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="24"/>
+      <c r="B78" s="21" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="27"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
